--- a/biology/Zoologie/Anolis_distichus/Anolis_distichus.xlsx
+++ b/biology/Zoologie/Anolis_distichus/Anolis_distichus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis distichus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis distichus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à Hispaniola et aux Bahamas[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à Hispaniola et aux Bahamas.
 Elle a été introduite en Floride aux États-Unis.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent jusqu'à 58 mm et les femelles jusqu'à 48 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent jusqu'à 58 mm et les femelles jusqu'à 48 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (21 décembre 2012)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (21 décembre 2012) :
 Anolis distichus aurifer Schwartz, 1968 du massif de la Hotte
 Anolis distichus biminiensis Oliver, 1948 des îles Bimini
 Anolis distichus dapsilis Schwartz, 1968 des Bahamas
@@ -622,9 +640,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glor et Laport en 2012 ont proposé d'élever au rang d'espèce les sous-espèces dominicensis, favillarum, ignigularis, properus et ravitergum[4]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glor et Laport en 2012 ont proposé d'élever au rang d'espèce les sous-espèces dominicensis, favillarum, ignigularis, properus et ravitergum
 </t>
         </is>
       </c>
@@ -653,7 +673,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cochran, 1934 : Herpetological collections made in Hispaniola by the Utowana Expedition, 1934. Occasional Papers of the Boston Society of Natural History, vol. 8, p. 163-188 (texte intégral).
 Cope, 1861 : Notes and descriptions of anoles. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 208-215 (texte intégral).
